--- a/data-src-py/planilha_vendas.xlsx
+++ b/data-src-py/planilha_vendas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Data-Science\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Data-Science\data-src-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,16 +45,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +360,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +416,7 @@
         <v>1036</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
